--- a/工程文書/仕様書/B票000001.xlsx
+++ b/工程文書/仕様書/B票000001.xlsx
@@ -9,16 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16800"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="4" r:id="rId1"/>
-    <sheet name="UTテスト" sheetId="2" r:id="rId2"/>
-    <sheet name="ITテスト" sheetId="3" r:id="rId3"/>
+    <sheet name="仕様書" sheetId="4" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">UTテスト!$A$1:$M$32</definedName>
-  </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>作者</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +151,103 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态参照增加页面或修改页面的下拉内容</t>
+    <rPh sb="0" eb="1">
+      <t>uddy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cdjv</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dmdm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ak</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>whnt</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dmdm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>r</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gh</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mwpw</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历参加增加页面或修改页面的下拉内容</t>
+    <rPh sb="0" eb="1">
+      <t>ip</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cdlk</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dmdm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ak</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>whnt</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dmdm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>r</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gh</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mwpw</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上都是</t>
+    <rPh sb="0" eb="1">
+      <t>c</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ftjb</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -240,20 +332,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -262,37 +358,56 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -610,84 +725,812 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>43080</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -695,94 +1538,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="8">
-        <v>43080</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>